--- a/generate_cp/json_output/instructional_methods_description_dataframe.xlsx
+++ b/generate_cp/json_output/instructional_methods_description_dataframe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,48 +448,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Interactive Presentation (14 hrs)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>In this course, lectures are essential for delivering foundational knowledge about the integration and functionalities of Microsoft Copilot for Microsoft 365. This method allows the facilitator to systematically introduce learners to the core components and responsible AI practices associated with the tool. By using lectures, learners can receive structured information, which is crucial for understanding the complexities of transitioning to and adopting new technologies within an organization. The lecture format ensures that learners have a clear and organized understanding of the principles and concepts, which is vital for planning and implementing effective transitions.</t>
+          <t>Interactive presentations are essential for introducing complex technical concepts and frameworks. This method allows for real-time visualization of algorithms, architectures, and mathematical concepts through slides and interactive demonstrations. The interactive nature enables learners to engage with the material actively, ask questions, and gain immediate clarification on challenging concepts. This approach is particularly effective for explaining abstract concepts while maintaining learner engagement through regular interaction.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Peer Sharing</t>
+          <t>Demonstration</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Peer sharing is particularly valuable in this course as it encourages learners to exchange their experiences and insights regarding the adoption of Microsoft Copilot. This method fosters a collaborative learning environment where learners can discuss real-world challenges and strategies for enhancing organizational processes. By sharing perspectives, learners can gain diverse insights into how different organizations might approach training and integration, which can lead to more innovative and effective solutions.</t>
+          <t>Demonstrations are crucial for showing practical implementation of models and techniques. Through live coding and step-by-step walkthroughs, learners can observe best practices in action and understand the practical application of theoretical concepts. This method is particularly valuable for showcasing how to implement different architectures, handle data preprocessing, and execute model training workflows. Demonstrations help bridge the gap between theory and practical application by providing visual and concrete examples of implementation techniques.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Group Discussion</t>
+          <t>Practical</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Group discussions are integral to this course as they provide learners with the opportunity to delve deeper into the principles and concepts of Microsoft Copilot for Microsoft 365. Through structured discussions, learners can explore various scenarios and applications of the tool, enhancing their understanding and retention of the material. This method also allows learners to articulate their thoughts and engage with others' ideas, which can lead to a more comprehensive grasp of how to optimize and extend the use of Copilot in different organizational contexts.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Case Study</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>The use of case studies in this course is crucial for bridging theoretical knowledge with practical application. By analyzing real-world scenarios, learners can explore the intricacies of transitioning to Microsoft Copilot and the potential issues that may arise. This method enables learners to apply the principles and concepts discussed in lectures and group discussions to concrete situations, thereby solidifying their understanding and preparing them for real-life challenges in digital technology adoption and innovation.</t>
+          <t>Hands-on practical sessions are essential for developing implementation skills and building confidence in working with models and frameworks. These sessions allow learners to directly apply theoretical knowledge by working with actual datasets, implementing models, and solving real-world problems. Through guided exercises and independent work, learners can experiment with different approaches, debug issues, and understand the nuances of implementation. This experiential learning approach helps solidify understanding and builds practical competency in applying complex techniques.</t>
         </is>
       </c>
     </row>
